--- a/003_グループ演習延長戦/002_表置き場/003_第6章_セキュリティ機能要件根拠の表.xlsx
+++ b/003_グループ演習延長戦/002_表置き場/003_第6章_セキュリティ機能要件根拠の表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA8BB8F-486B-4B14-8B39-EF9E97B0774C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131A19F5-FD51-4443-8128-1E32CE484907}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>OT.Lost</t>
   </si>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>FPT_PHP.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OT.Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OT.Easy_Password</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -146,7 +154,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +167,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -393,47 +395,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,30 +411,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,7 +423,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,155 +773,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A3ECD-5881-4618-9C42-91E815C3FA33}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="1" customWidth="1"/>
-    <col min="3" max="8" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.75" style="1" customWidth="1"/>
+    <col min="6" max="10" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="J3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="27"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/003_グループ演習延長戦/002_表置き場/003_第6章_セキュリティ機能要件根拠の表.xlsx
+++ b/003_グループ演習延長戦/002_表置き場/003_第6章_セキュリティ機能要件根拠の表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131A19F5-FD51-4443-8128-1E32CE484907}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B59A03-111A-4DD1-97A6-CD97C988834A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>OT.Lost</t>
   </si>
@@ -101,6 +101,14 @@
   </si>
   <si>
     <t>OT.Easy_Password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FIA_SOS.1 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -168,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -389,13 +397,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +461,39 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,40 +503,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -773,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A3ECD-5881-4618-9C42-91E815C3FA33}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -781,7 +840,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.75" style="1" customWidth="1"/>
@@ -791,45 +850,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -837,113 +896,157 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/003_グループ演習延長戦/002_表置き場/003_第6章_セキュリティ機能要件根拠の表.xlsx
+++ b/003_グループ演習延長戦/002_表置き場/003_第6章_セキュリティ機能要件根拠の表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B59A03-111A-4DD1-97A6-CD97C988834A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E3D5A8-7C88-4021-81BC-43B2742B9E8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>OT.Lost</t>
   </si>
@@ -64,51 +64,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>FIA_UAU.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIA_UID.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FMT_MTD.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FMT_SMF.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FMT_SMR.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPT_ITC.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPT_PHP.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OT.Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OT.Easy_Password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FIA_SOS.1 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>FIA_AFL.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FIA_UAU.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FIA_UID.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FMT_MTD.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FMT_SMF.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FMT_SMR.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FPT_ITC.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FPT_PHP.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OT.Input</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OT.Easy_Password</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FIA_SOS.1 </t>
+  </si>
+  <si>
+    <t>FCS_COP.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -494,6 +504,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,21 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A3ECD-5881-4618-9C42-91E815C3FA33}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -850,17 +860,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
@@ -871,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
@@ -894,66 +904,64 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="8"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -962,15 +970,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -978,74 +988,90 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>18</v>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/003_グループ演習延長戦/002_表置き場/003_第6章_セキュリティ機能要件根拠の表.xlsx
+++ b/003_グループ演習延長戦/002_表置き場/003_第6章_セキュリティ機能要件根拠の表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E3D5A8-7C88-4021-81BC-43B2742B9E8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61722643-0EB1-4F99-958E-2127DC0C810F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{067EDACE-3E5D-403C-84F4-FC20BCB49C3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>OT.Lost</t>
   </si>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>FCS_COP.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -845,7 +849,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -914,7 +918,9 @@
       <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="10"/>
     </row>
@@ -986,7 +992,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
